--- a/result/problem_1/erf/result_12.xlsx
+++ b/result/problem_1/erf/result_12.xlsx
@@ -798,7 +798,7 @@
         <v>773</v>
       </c>
       <c r="D16" t="n">
-        <v>1443</v>
+        <v>1067</v>
       </c>
       <c r="E16" t="n">
         <v>2250</v>
@@ -1051,7 +1051,7 @@
         <v>2614</v>
       </c>
       <c r="D27" t="n">
-        <v>3608</v>
+        <v>2744</v>
       </c>
       <c r="E27" t="n">
         <v>9000</v>
@@ -1071,10 +1071,10 @@
         <v>11423169</v>
       </c>
       <c r="C28" t="n">
-        <v>2679</v>
+        <v>2744</v>
       </c>
       <c r="D28" t="n">
-        <v>2751</v>
+        <v>2816</v>
       </c>
       <c r="E28" t="n">
         <v>9000</v>
@@ -1094,10 +1094,10 @@
         <v>11423170</v>
       </c>
       <c r="C29" t="n">
-        <v>2751</v>
+        <v>2816</v>
       </c>
       <c r="D29" t="n">
-        <v>2823</v>
+        <v>2888</v>
       </c>
       <c r="E29" t="n">
         <v>9000</v>
@@ -1117,10 +1117,10 @@
         <v>11423171</v>
       </c>
       <c r="C30" t="n">
-        <v>2823</v>
+        <v>2888</v>
       </c>
       <c r="D30" t="n">
-        <v>2895</v>
+        <v>2960</v>
       </c>
       <c r="E30" t="n">
         <v>9000</v>
@@ -1140,10 +1140,10 @@
         <v>11423172</v>
       </c>
       <c r="C31" t="n">
-        <v>2895</v>
+        <v>2960</v>
       </c>
       <c r="D31" t="n">
-        <v>2967</v>
+        <v>3032</v>
       </c>
       <c r="E31" t="n">
         <v>9000</v>
@@ -1163,10 +1163,10 @@
         <v>11423173</v>
       </c>
       <c r="C32" t="n">
-        <v>2967</v>
+        <v>3032</v>
       </c>
       <c r="D32" t="n">
-        <v>3039</v>
+        <v>3104</v>
       </c>
       <c r="E32" t="n">
         <v>9000</v>
@@ -1186,10 +1186,10 @@
         <v>11423174</v>
       </c>
       <c r="C33" t="n">
-        <v>3039</v>
+        <v>3104</v>
       </c>
       <c r="D33" t="n">
-        <v>3111</v>
+        <v>3176</v>
       </c>
       <c r="E33" t="n">
         <v>9000</v>
@@ -1209,10 +1209,10 @@
         <v>11423175</v>
       </c>
       <c r="C34" t="n">
-        <v>3111</v>
+        <v>3176</v>
       </c>
       <c r="D34" t="n">
-        <v>3183</v>
+        <v>3248</v>
       </c>
       <c r="E34" t="n">
         <v>9000</v>
@@ -1232,10 +1232,10 @@
         <v>11423176</v>
       </c>
       <c r="C35" t="n">
-        <v>3183</v>
+        <v>3248</v>
       </c>
       <c r="D35" t="n">
-        <v>3255</v>
+        <v>3320</v>
       </c>
       <c r="E35" t="n">
         <v>9000</v>
@@ -1255,10 +1255,10 @@
         <v>11423177</v>
       </c>
       <c r="C36" t="n">
-        <v>3255</v>
+        <v>3320</v>
       </c>
       <c r="D36" t="n">
-        <v>3327</v>
+        <v>3392</v>
       </c>
       <c r="E36" t="n">
         <v>9000</v>
@@ -1278,10 +1278,10 @@
         <v>11423178</v>
       </c>
       <c r="C37" t="n">
-        <v>3327</v>
+        <v>3392</v>
       </c>
       <c r="D37" t="n">
-        <v>3399</v>
+        <v>3464</v>
       </c>
       <c r="E37" t="n">
         <v>9000</v>
@@ -1301,10 +1301,10 @@
         <v>11423179</v>
       </c>
       <c r="C38" t="n">
-        <v>3399</v>
+        <v>3464</v>
       </c>
       <c r="D38" t="n">
-        <v>3471</v>
+        <v>3536</v>
       </c>
       <c r="E38" t="n">
         <v>9000</v>
@@ -1324,10 +1324,10 @@
         <v>11423180</v>
       </c>
       <c r="C39" t="n">
-        <v>3471</v>
+        <v>3536</v>
       </c>
       <c r="D39" t="n">
-        <v>3543</v>
+        <v>3608</v>
       </c>
       <c r="E39" t="n">
         <v>9000</v>
@@ -1784,7 +1784,7 @@
         <v>12000003</v>
       </c>
       <c r="C59" t="n">
-        <v>962</v>
+        <v>1352</v>
       </c>
       <c r="D59" t="n">
         <v>1631</v>
@@ -1807,10 +1807,10 @@
         <v>12000004</v>
       </c>
       <c r="C60" t="n">
-        <v>867</v>
+        <v>1067</v>
       </c>
       <c r="D60" t="n">
-        <v>1538</v>
+        <v>1352</v>
       </c>
       <c r="E60" t="n">
         <v>2250</v>
